--- a/biology/Botanique/Podocarpus_polystachyus/Podocarpus_polystachyus.xlsx
+++ b/biology/Botanique/Podocarpus_polystachyus/Podocarpus_polystachyus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Podocarpus polystachyus est une espèce de plantes de la famille des Podocarpaceae. C'est un arbre tropical originaire du sud de l'Asie et de l'Océanie proche.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre atteint de 1 à 20 m de hauteur[1]; son écorce est brun rougeâtre. Les feuilles, longues et étroites chez les jeunes arbres, s'ovalisent un peu chez les individus plus âgés. Les dimensions des feuilles sont de 6 à 13 cm de longueur pour 3 à 10 mm de largeur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre atteint de 1 à 20 m de hauteur; son écorce est brun rougeâtre. Les feuilles, longues et étroites chez les jeunes arbres, s'ovalisent un peu chez les individus plus âgés. Les dimensions des feuilles sont de 6 à 13 cm de longueur pour 3 à 10 mm de largeur.
 Les individus mâles produisent des grappes de cônes de couleur crème un peu jaunâtre, qui produisent un pollen blanchâtre. Les individus femelles produisent un cône très modifié, réduit à un réceptacle charnu surmonté d’un unique ovule. Après fécondation, l'ovule se transforme en graine tandis que le réceptacle s'agrandit et devient d’un rouge brillant.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce pousse dans des zones côtières du sud-est de l'Asie et en Nouvelle-Guinée. Il est un des rares conifères capables de pousser dans des mangroves, il peut aussi être présent sur les plages ou sur des côtes rocheuses[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce pousse dans des zones côtières du sud-est de l'Asie et en Nouvelle-Guinée. Il est un des rares conifères capables de pousser dans des mangroves, il peut aussi être présent sur les plages ou sur des côtes rocheuses.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Taxinomie et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ce taxon présente plusieurs synonymes :
 Nageia polystachya (R.Br. ex Endl.) Kuntze, 1891 ;
@@ -611,10 +629,12 @@
           <t>Podocarpus polystachyus et l'homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de cette espèce est exploité. Ces arbres peuvent être plantés pour agrémenter parcs ou bords de route. On peut les utiliser pour produire des bonsaïs[1].
-L'espèce est en danger[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de cette espèce est exploité. Ces arbres peuvent être plantés pour agrémenter parcs ou bords de route. On peut les utiliser pour produire des bonsaïs.
+L'espèce est en danger.
 </t>
         </is>
       </c>
